--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N2">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P2">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q2">
-        <v>3.890511280551894</v>
+        <v>24.69801914161867</v>
       </c>
       <c r="R2">
-        <v>3.890511280551894</v>
+        <v>222.282172274568</v>
       </c>
       <c r="S2">
-        <v>0.01649210442070017</v>
+        <v>0.0660802588342327</v>
       </c>
       <c r="T2">
-        <v>0.01649210442070017</v>
+        <v>0.0660802588342327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P3">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q3">
-        <v>13.43974676436809</v>
+        <v>66.45425031711822</v>
       </c>
       <c r="R3">
-        <v>13.43974676436809</v>
+        <v>598.088252854064</v>
       </c>
       <c r="S3">
-        <v>0.05697187105811022</v>
+        <v>0.1778002533891576</v>
       </c>
       <c r="T3">
-        <v>0.05697187105811022</v>
+        <v>0.1778002533891576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N4">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P4">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q4">
-        <v>2.301455161035678</v>
+        <v>12.23212320758711</v>
       </c>
       <c r="R4">
-        <v>2.301455161035678</v>
+        <v>110.089108868284</v>
       </c>
       <c r="S4">
-        <v>0.00975600277143405</v>
+        <v>0.03272739659868149</v>
       </c>
       <c r="T4">
-        <v>0.00975600277143405</v>
+        <v>0.03272739659868149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N5">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P5">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q5">
-        <v>9.031526882082478</v>
+        <v>44.78142796872577</v>
       </c>
       <c r="R5">
-        <v>9.031526882082478</v>
+        <v>403.032851718532</v>
       </c>
       <c r="S5">
-        <v>0.03828516965424027</v>
+        <v>0.1198139953723434</v>
       </c>
       <c r="T5">
-        <v>0.03828516965424027</v>
+        <v>0.1198139953723434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N6">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P6">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q6">
-        <v>21.19963775937937</v>
+        <v>27.944205990932</v>
       </c>
       <c r="R6">
-        <v>21.19963775937937</v>
+        <v>251.497853918388</v>
       </c>
       <c r="S6">
-        <v>0.08986650195732267</v>
+        <v>0.07476552488722712</v>
       </c>
       <c r="T6">
-        <v>0.08986650195732267</v>
+        <v>0.07476552488722714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P7">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q7">
-        <v>73.23401538678411</v>
+        <v>75.18867198160267</v>
       </c>
       <c r="R7">
-        <v>73.23401538678411</v>
+        <v>676.698047834424</v>
       </c>
       <c r="S7">
-        <v>0.31044326614436</v>
+        <v>0.2011694491553017</v>
       </c>
       <c r="T7">
-        <v>0.31044326614436</v>
+        <v>0.2011694491553017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N8">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P8">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q8">
-        <v>12.54077220577788</v>
+        <v>13.83985366029933</v>
       </c>
       <c r="R8">
-        <v>12.54077220577788</v>
+        <v>124.558682942694</v>
       </c>
       <c r="S8">
-        <v>0.05316106542802874</v>
+        <v>0.03702892555295611</v>
       </c>
       <c r="T8">
-        <v>0.05316106542802874</v>
+        <v>0.03702892555295612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N9">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O9">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P9">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q9">
-        <v>49.21335128145034</v>
+        <v>50.66727985555133</v>
       </c>
       <c r="R9">
-        <v>49.21335128145034</v>
+        <v>456.005518699962</v>
       </c>
       <c r="S9">
-        <v>0.2086182688335869</v>
+        <v>0.1355617609688963</v>
       </c>
       <c r="T9">
-        <v>0.2086182688335869</v>
+        <v>0.1355617609688964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N10">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O10">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P10">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q10">
-        <v>2.276616260277596</v>
+        <v>3.371492979015333</v>
       </c>
       <c r="R10">
-        <v>2.276616260277596</v>
+        <v>30.34343681113799</v>
       </c>
       <c r="S10">
-        <v>0.009650709221189007</v>
+        <v>0.009020526198220859</v>
       </c>
       <c r="T10">
-        <v>0.009650709221189007</v>
+        <v>0.009020526198220861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P11">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q11">
-        <v>7.864556561170851</v>
+        <v>9.07157926654711</v>
       </c>
       <c r="R11">
-        <v>7.864556561170851</v>
+        <v>81.64421339892399</v>
       </c>
       <c r="S11">
-        <v>0.0333383143438497</v>
+        <v>0.02427127060398758</v>
       </c>
       <c r="T11">
-        <v>0.0333383143438497</v>
+        <v>0.02427127060398759</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N12">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O12">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P12">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q12">
-        <v>1.346745932367623</v>
+        <v>1.669790491146555</v>
       </c>
       <c r="R12">
-        <v>1.346745932367623</v>
+        <v>15.028114420319</v>
       </c>
       <c r="S12">
-        <v>0.005708934621469423</v>
+        <v>0.00446757236769529</v>
       </c>
       <c r="T12">
-        <v>0.005708934621469423</v>
+        <v>0.004467572367695291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N13">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O13">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P13">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q13">
-        <v>5.284991990041584</v>
+        <v>6.113051784481888</v>
       </c>
       <c r="R13">
-        <v>5.284991990041584</v>
+        <v>55.01746606033699</v>
       </c>
       <c r="S13">
-        <v>0.02240338954883212</v>
+        <v>0.01635564544141643</v>
       </c>
       <c r="T13">
-        <v>0.02240338954883212</v>
+        <v>0.01635564544141644</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H14">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J14">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.39888466705772</v>
+        <v>10.793878</v>
       </c>
       <c r="N14">
-        <v>8.39888466705772</v>
+        <v>32.381634</v>
       </c>
       <c r="O14">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="P14">
-        <v>0.135731734046895</v>
+        <v>0.166691744666625</v>
       </c>
       <c r="Q14">
-        <v>4.652547030575901</v>
+        <v>6.288639251376666</v>
       </c>
       <c r="R14">
-        <v>4.652547030575901</v>
+        <v>56.59775326238999</v>
       </c>
       <c r="S14">
-        <v>0.01972241844768319</v>
+        <v>0.01682543474694427</v>
       </c>
       <c r="T14">
-        <v>0.01972241844768319</v>
+        <v>0.01682543474694427</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H15">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J15">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.013894290104</v>
+        <v>29.04277733333333</v>
       </c>
       <c r="N15">
-        <v>29.013894290104</v>
+        <v>87.128332</v>
       </c>
       <c r="O15">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="P15">
-        <v>0.4688844221060975</v>
+        <v>0.4485126868821051</v>
       </c>
       <c r="Q15">
-        <v>16.07219447295439</v>
+        <v>16.92066090680222</v>
       </c>
       <c r="R15">
-        <v>16.07219447295439</v>
+        <v>152.28594816122</v>
       </c>
       <c r="S15">
-        <v>0.06813097055977761</v>
+        <v>0.0452717137336583</v>
       </c>
       <c r="T15">
-        <v>0.06813097055977761</v>
+        <v>0.0452717137336583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H16">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J16">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.96841033736866</v>
+        <v>5.345855666666666</v>
       </c>
       <c r="N16">
-        <v>4.96841033736866</v>
+        <v>16.037567</v>
       </c>
       <c r="O16">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755007</v>
       </c>
       <c r="P16">
-        <v>0.08029291712893721</v>
+        <v>0.08255698348755008</v>
       </c>
       <c r="Q16">
-        <v>2.752241955705416</v>
+        <v>3.114557879716111</v>
       </c>
       <c r="R16">
-        <v>2.752241955705416</v>
+        <v>28.03102091744499</v>
       </c>
       <c r="S16">
-        <v>0.011666914308005</v>
+        <v>0.008333088968217191</v>
       </c>
       <c r="T16">
-        <v>0.011666914308005</v>
+        <v>0.008333088968217195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5539481984821411</v>
+        <v>0.5826116666666666</v>
       </c>
       <c r="H17">
-        <v>0.5539481984821411</v>
+        <v>1.747835</v>
       </c>
       <c r="I17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298835</v>
       </c>
       <c r="J17">
-        <v>0.1453044019968767</v>
+        <v>0.1009374206298836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.4973737845792</v>
+        <v>19.57101366666667</v>
       </c>
       <c r="N17">
-        <v>19.4973737845792</v>
+        <v>58.713041</v>
       </c>
       <c r="O17">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="P17">
-        <v>0.3150909267180702</v>
+        <v>0.3022385849637199</v>
       </c>
       <c r="Q17">
-        <v>10.80053508310057</v>
+        <v>11.40230089069278</v>
       </c>
       <c r="R17">
-        <v>10.80053508310057</v>
+        <v>102.620708016235</v>
       </c>
       <c r="S17">
-        <v>0.04578409868141089</v>
+        <v>0.03050718318106379</v>
       </c>
       <c r="T17">
-        <v>0.04578409868141089</v>
+        <v>0.0305071831810638</v>
       </c>
     </row>
   </sheetData>
